--- a/Functions tracker.xlsx
+++ b/Functions tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Keysight-AWG-M8195A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BC6422-244E-4A29-9DE7-8EDBF95FD41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCAC175-78BC-44C2-A0AE-7102CCC0E9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,10 +717,10 @@
     <t>SelfTestsPowerResultMessageQuery</t>
   </si>
   <si>
-    <t>Number of dunctions:</t>
-  </si>
-  <si>
     <t>Keysight-AWG-M8195A</t>
+  </si>
+  <si>
+    <t>Number of Functions:</t>
   </si>
 </sst>
 </file>
@@ -943,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,6 +1002,60 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1023,58 +1077,7 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1359,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183:C210"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,237 +1376,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="s">
-        <v>229</v>
+      <c r="C1" s="21"/>
+      <c r="D1" s="20" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1614,8 +1617,8 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="42"/>
-      <c r="C34" s="42" t="s">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1623,57 +1626,57 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="42"/>
-      <c r="C42" s="42" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -1681,1234 +1684,1232 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="34"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
       <c r="D56" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
       <c r="D58" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
       <c r="D64" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
       <c r="D66" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
       <c r="D68" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
       <c r="D69" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
       <c r="D70" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
       <c r="D71" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
       <c r="D72" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
       <c r="D73" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
       <c r="D74" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
       <c r="D75" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
       <c r="D76" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
       <c r="D77" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
       <c r="D78" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
       <c r="D79" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
       <c r="D80" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
       <c r="D81" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
       <c r="D82" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
       <c r="D83" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="35"/>
+      <c r="C84" s="28"/>
       <c r="D84" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
       <c r="D85" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
       <c r="D87" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
       <c r="D88" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
       <c r="D89" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
       <c r="D90" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="36"/>
+      <c r="C91" s="29"/>
       <c r="D91" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
       <c r="D92" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="37" t="s">
+      <c r="B93" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="37"/>
+      <c r="C93" s="30"/>
       <c r="D93" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
       <c r="D95" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="37"/>
-      <c r="C96" s="37"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
       <c r="D96" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="37"/>
-      <c r="C97" s="37"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
       <c r="D97" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="37"/>
-      <c r="C98" s="37"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
       <c r="D98" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="37"/>
-      <c r="C99" s="37"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
       <c r="D99" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
       <c r="D100" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="37"/>
-      <c r="C101" s="37"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
       <c r="D101" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
       <c r="D102" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C103" s="38"/>
+      <c r="C103" s="31"/>
       <c r="D103" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="38"/>
-      <c r="C104" s="38"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
       <c r="D104" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="38"/>
-      <c r="C105" s="38"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
       <c r="D105" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="38"/>
-      <c r="C106" s="38"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
       <c r="D106" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
       <c r="D107" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="38"/>
-      <c r="C108" s="38"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
       <c r="D108" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="38"/>
-      <c r="C109" s="38"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
       <c r="D109" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
       <c r="D110" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="38"/>
-      <c r="C111" s="38"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
       <c r="D111" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="38"/>
-      <c r="C112" s="38"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
       <c r="D112" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="38"/>
-      <c r="C113" s="38"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
       <c r="D113" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="38"/>
-      <c r="C114" s="38"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
       <c r="D114" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="38"/>
-      <c r="C115" s="38"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="31"/>
       <c r="D115" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="38"/>
-      <c r="C116" s="38"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
       <c r="D116" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="39" t="s">
+      <c r="B117" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="C117" s="39"/>
+      <c r="C117" s="32"/>
       <c r="D117" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
       <c r="D118" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
       <c r="D119" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
       <c r="D120" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
       <c r="D121" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
       <c r="D122" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
       <c r="D123" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
       <c r="D124" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
       <c r="D125" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
       <c r="D126" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
       <c r="D127" s="12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="39"/>
-      <c r="C128" s="39"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
       <c r="D128" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="39"/>
-      <c r="C129" s="39"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
       <c r="D129" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="39"/>
-      <c r="C130" s="39"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
       <c r="D130" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="39"/>
-      <c r="C131" s="39"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
       <c r="D131" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
       <c r="D132" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="39"/>
-      <c r="C133" s="39"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
       <c r="D133" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="39"/>
-      <c r="C134" s="39"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
       <c r="D134" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="39"/>
-      <c r="C135" s="39"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
       <c r="D135" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="39"/>
-      <c r="C136" s="39"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
       <c r="D136" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
       <c r="D137" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="28" t="s">
+      <c r="B138" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C138" s="28"/>
+      <c r="C138" s="33"/>
       <c r="D138" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
       <c r="D139" s="13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="29" t="s">
+      <c r="B140" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="C140" s="29"/>
+      <c r="C140" s="34"/>
       <c r="D140" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="29"/>
-      <c r="C141" s="29"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="34"/>
       <c r="D141" s="14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="34"/>
       <c r="D142" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
+      <c r="B143" s="34"/>
+      <c r="C143" s="34"/>
       <c r="D143" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="29"/>
-      <c r="C144" s="29"/>
+      <c r="B144" s="34"/>
+      <c r="C144" s="34"/>
       <c r="D144" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
+      <c r="B145" s="34"/>
+      <c r="C145" s="34"/>
       <c r="D145" s="14" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="29"/>
-      <c r="C146" s="29"/>
+      <c r="B146" s="34"/>
+      <c r="C146" s="34"/>
       <c r="D146" s="14" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="29"/>
-      <c r="C147" s="29"/>
+      <c r="B147" s="34"/>
+      <c r="C147" s="34"/>
       <c r="D147" s="14" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="29"/>
-      <c r="C148" s="29"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="34"/>
       <c r="D148" s="14" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C149" s="30"/>
+      <c r="C149" s="35"/>
       <c r="D149" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="30"/>
-      <c r="C150" s="30"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="35"/>
       <c r="D150" s="15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="30"/>
-      <c r="C151" s="30"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="35"/>
       <c r="D151" s="15" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="30"/>
-      <c r="C152" s="30"/>
+      <c r="B152" s="35"/>
+      <c r="C152" s="35"/>
       <c r="D152" s="15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="30"/>
-      <c r="C153" s="30"/>
+      <c r="B153" s="35"/>
+      <c r="C153" s="35"/>
       <c r="D153" s="15" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="30"/>
-      <c r="C154" s="30"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="35"/>
       <c r="D154" s="15" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="30"/>
-      <c r="C155" s="30"/>
+      <c r="B155" s="35"/>
+      <c r="C155" s="35"/>
       <c r="D155" s="15" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="30"/>
-      <c r="C156" s="30"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="35"/>
       <c r="D156" s="15" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="30"/>
-      <c r="C157" s="30"/>
+      <c r="B157" s="35"/>
+      <c r="C157" s="35"/>
       <c r="D157" s="15" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="30"/>
-      <c r="C158" s="30"/>
+      <c r="B158" s="35"/>
+      <c r="C158" s="35"/>
       <c r="D158" s="15" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="31" t="s">
+      <c r="B159" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C159" s="31"/>
+      <c r="C159" s="36"/>
       <c r="D159" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="31"/>
-      <c r="C160" s="31"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="36"/>
       <c r="D160" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="32" t="s">
+      <c r="B161" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C161" s="32"/>
+      <c r="C161" s="37"/>
       <c r="D161" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="32"/>
-      <c r="C162" s="32"/>
+      <c r="B162" s="37"/>
+      <c r="C162" s="37"/>
       <c r="D162" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="32"/>
-      <c r="C163" s="32"/>
+      <c r="B163" s="37"/>
+      <c r="C163" s="37"/>
       <c r="D163" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="32"/>
-      <c r="C164" s="32"/>
+      <c r="B164" s="37"/>
+      <c r="C164" s="37"/>
       <c r="D164" s="17" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="32"/>
-      <c r="C165" s="32"/>
+      <c r="B165" s="37"/>
+      <c r="C165" s="37"/>
       <c r="D165" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="32"/>
-      <c r="C166" s="32"/>
+      <c r="B166" s="37"/>
+      <c r="C166" s="37"/>
       <c r="D166" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="32"/>
-      <c r="C167" s="32"/>
+      <c r="B167" s="37"/>
+      <c r="C167" s="37"/>
       <c r="D167" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
+      <c r="B168" s="37"/>
+      <c r="C168" s="37"/>
       <c r="D168" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="32"/>
-      <c r="C169" s="32"/>
+      <c r="B169" s="37"/>
+      <c r="C169" s="37"/>
       <c r="D169" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="32"/>
-      <c r="C170" s="32"/>
+      <c r="B170" s="37"/>
+      <c r="C170" s="37"/>
       <c r="D170" s="17" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="32"/>
-      <c r="C171" s="32"/>
+      <c r="B171" s="37"/>
+      <c r="C171" s="37"/>
       <c r="D171" s="17" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="32"/>
-      <c r="C172" s="32"/>
+      <c r="B172" s="37"/>
+      <c r="C172" s="37"/>
       <c r="D172" s="17" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="32"/>
-      <c r="C173" s="32"/>
+      <c r="B173" s="37"/>
+      <c r="C173" s="37"/>
       <c r="D173" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="32"/>
-      <c r="C174" s="32"/>
+      <c r="B174" s="37"/>
+      <c r="C174" s="37"/>
       <c r="D174" s="17" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="32"/>
-      <c r="C175" s="32"/>
+      <c r="B175" s="37"/>
+      <c r="C175" s="37"/>
       <c r="D175" s="17" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="32"/>
-      <c r="C176" s="32"/>
+      <c r="B176" s="37"/>
+      <c r="C176" s="37"/>
       <c r="D176" s="17" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B177" s="32"/>
-      <c r="C177" s="32"/>
+      <c r="B177" s="37"/>
+      <c r="C177" s="37"/>
       <c r="D177" s="17" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="33" t="s">
+      <c r="B178" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="C178" s="33"/>
+      <c r="C178" s="26"/>
       <c r="D178" s="18" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="20" t="s">
+      <c r="B179" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C179" s="20"/>
-      <c r="D179" s="21" t="s">
+      <c r="C179" s="38"/>
+      <c r="D179" s="39" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B180" s="20"/>
-      <c r="C180" s="20"/>
-      <c r="D180" s="22"/>
+      <c r="B180" s="38"/>
+      <c r="C180" s="38"/>
+      <c r="D180" s="40"/>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="20"/>
-      <c r="C181" s="20"/>
-      <c r="D181" s="22"/>
+      <c r="B181" s="38"/>
+      <c r="C181" s="38"/>
+      <c r="D181" s="40"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" s="20"/>
-      <c r="C182" s="20"/>
-      <c r="D182" s="23"/>
+      <c r="B182" s="38"/>
+      <c r="C182" s="38"/>
+      <c r="D182" s="41"/>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B183" s="24" t="s">
+      <c r="B183" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C183" s="24"/>
+      <c r="C183" s="42"/>
       <c r="D183" s="19" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="24"/>
-      <c r="C184" s="24"/>
+      <c r="B184" s="42"/>
+      <c r="C184" s="42"/>
       <c r="D184" s="19" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="24"/>
-      <c r="C185" s="24"/>
+      <c r="B185" s="42"/>
+      <c r="C185" s="42"/>
       <c r="D185" s="19" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B186" s="24"/>
-      <c r="C186" s="24"/>
+      <c r="B186" s="42"/>
+      <c r="C186" s="42"/>
       <c r="D186" s="19" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" s="24"/>
-      <c r="C187" s="24"/>
+      <c r="B187" s="42"/>
+      <c r="C187" s="42"/>
       <c r="D187" s="19" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="24"/>
-      <c r="C188" s="24"/>
+      <c r="B188" s="42"/>
+      <c r="C188" s="42"/>
       <c r="D188" s="19" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B189" s="24"/>
-      <c r="C189" s="24"/>
+      <c r="B189" s="42"/>
+      <c r="C189" s="42"/>
       <c r="D189" s="19" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" s="24"/>
-      <c r="C190" s="24"/>
+      <c r="B190" s="42"/>
+      <c r="C190" s="42"/>
       <c r="D190" s="19" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" s="24"/>
-      <c r="C191" s="24"/>
-      <c r="D191" s="25" t="s">
+      <c r="B191" s="42"/>
+      <c r="C191" s="42"/>
+      <c r="D191" s="43" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="24"/>
-      <c r="C192" s="24"/>
-      <c r="D192" s="26"/>
+      <c r="B192" s="42"/>
+      <c r="C192" s="42"/>
+      <c r="D192" s="44"/>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="24"/>
-      <c r="C193" s="24"/>
+      <c r="B193" s="42"/>
+      <c r="C193" s="42"/>
       <c r="D193" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="24"/>
-      <c r="C194" s="24"/>
+      <c r="B194" s="42"/>
+      <c r="C194" s="42"/>
       <c r="D194" s="19" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="24"/>
-      <c r="C195" s="24"/>
+      <c r="B195" s="42"/>
+      <c r="C195" s="42"/>
       <c r="D195" s="19" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="24"/>
-      <c r="C196" s="24"/>
+      <c r="B196" s="42"/>
+      <c r="C196" s="42"/>
       <c r="D196" s="19" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="24"/>
-      <c r="C197" s="24"/>
+      <c r="B197" s="42"/>
+      <c r="C197" s="42"/>
       <c r="D197" s="19" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B198" s="24"/>
-      <c r="C198" s="24"/>
+      <c r="B198" s="42"/>
+      <c r="C198" s="42"/>
       <c r="D198" s="19" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="24"/>
-      <c r="C199" s="24"/>
+      <c r="B199" s="42"/>
+      <c r="C199" s="42"/>
       <c r="D199" s="19" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B200" s="24"/>
-      <c r="C200" s="24"/>
+      <c r="B200" s="42"/>
+      <c r="C200" s="42"/>
       <c r="D200" s="19" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B201" s="24"/>
-      <c r="C201" s="24"/>
+      <c r="B201" s="42"/>
+      <c r="C201" s="42"/>
       <c r="D201" s="19" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B202" s="24"/>
-      <c r="C202" s="24"/>
+      <c r="B202" s="42"/>
+      <c r="C202" s="42"/>
       <c r="D202" s="19" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B203" s="24"/>
-      <c r="C203" s="24"/>
+      <c r="B203" s="42"/>
+      <c r="C203" s="42"/>
       <c r="D203" s="19" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B204" s="24"/>
-      <c r="C204" s="24"/>
+      <c r="B204" s="42"/>
+      <c r="C204" s="42"/>
       <c r="D204" s="19" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B205" s="24"/>
-      <c r="C205" s="24"/>
+      <c r="B205" s="42"/>
+      <c r="C205" s="42"/>
       <c r="D205" s="19" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B206" s="24"/>
-      <c r="C206" s="24"/>
+      <c r="B206" s="42"/>
+      <c r="C206" s="42"/>
       <c r="D206" s="19" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B207" s="24"/>
-      <c r="C207" s="24"/>
+      <c r="B207" s="42"/>
+      <c r="C207" s="42"/>
       <c r="D207" s="19" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B208" s="24"/>
-      <c r="C208" s="24"/>
+      <c r="B208" s="42"/>
+      <c r="C208" s="42"/>
       <c r="D208" s="19" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B209" s="24"/>
-      <c r="C209" s="24"/>
+      <c r="B209" s="42"/>
+      <c r="C209" s="42"/>
       <c r="D209" s="19" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B210" s="24"/>
-      <c r="C210" s="24"/>
+      <c r="B210" s="42"/>
+      <c r="C210" s="42"/>
       <c r="D210" s="19" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B211" s="27" t="s">
+      <c r="B211" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="C211" s="27"/>
+      <c r="C211" s="22"/>
       <c r="D211" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B212" s="27"/>
-      <c r="C212" s="27"/>
+      <c r="B212" s="22"/>
+      <c r="C212" s="22"/>
       <c r="D212" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C215" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D215" s="2">
+      <c r="C215" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="D215" s="45">
         <v>203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:C17"/>
-    <mergeCell ref="B18:C32"/>
-    <mergeCell ref="B33:B49"/>
-    <mergeCell ref="C34:C41"/>
-    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="B179:C182"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="B183:C210"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="B211:C212"/>
     <mergeCell ref="B178:C178"/>
     <mergeCell ref="B50:C83"/>
     <mergeCell ref="B84:C90"/>
@@ -2921,11 +2922,13 @@
     <mergeCell ref="B149:C158"/>
     <mergeCell ref="B159:C160"/>
     <mergeCell ref="B161:C177"/>
-    <mergeCell ref="B179:C182"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="B183:C210"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="B211:C212"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C17"/>
+    <mergeCell ref="B18:C32"/>
+    <mergeCell ref="B33:B49"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="C42:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Functions tracker.xlsx
+++ b/Functions tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Keysight-AWG-M8195A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCAC175-78BC-44C2-A0AE-7102CCC0E9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A9A659-F90C-4640-A78A-B8992E6A4284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="436">
   <si>
     <t>Related chapters and sections in UserGuide</t>
-  </si>
-  <si>
-    <t>OpenIO</t>
-  </si>
-  <si>
-    <t>CloseIO</t>
   </si>
   <si>
     <t>6.5 System Related Commands (SYSTem Subsystem)</t>
@@ -721,6 +715,630 @@
   </si>
   <si>
     <t>Number of Functions:</t>
+  </si>
+  <si>
+    <t>snake_case naming style</t>
+  </si>
+  <si>
+    <t>set_event_in_trigger_out_switch</t>
+  </si>
+  <si>
+    <t>get_event_in_trigger_out_switch</t>
+  </si>
+  <si>
+    <t>get_error</t>
+  </si>
+  <si>
+    <t>get_scpi_list</t>
+  </si>
+  <si>
+    <t>get_license</t>
+  </si>
+  <si>
+    <t>set_instrument_setting</t>
+  </si>
+  <si>
+    <t>get_instrument_setting</t>
+  </si>
+  <si>
+    <t>get_scpi_version</t>
+  </si>
+  <si>
+    <t>get_softfrontpanel_connections</t>
+  </si>
+  <si>
+    <t>get_softfrontpanel_socketport</t>
+  </si>
+  <si>
+    <t>get_softfrontpanel_telnetport</t>
+  </si>
+  <si>
+    <t>get_softfrontpanel_tcpport</t>
+  </si>
+  <si>
+    <t>instrument_id</t>
+  </si>
+  <si>
+    <t>clear_event_register</t>
+  </si>
+  <si>
+    <t>set_status_register_bit5</t>
+  </si>
+  <si>
+    <t>get_status_register_bit5</t>
+  </si>
+  <si>
+    <t>get_standard_event_status_register</t>
+  </si>
+  <si>
+    <t>set_operation_complete</t>
+  </si>
+  <si>
+    <t>get_operation_complete</t>
+  </si>
+  <si>
+    <t>get_installed_options</t>
+  </si>
+  <si>
+    <t>instrument_reset</t>
+  </si>
+  <si>
+    <t>set_service_request_enable_bits</t>
+  </si>
+  <si>
+    <t>get_service_request_enable_bits</t>
+  </si>
+  <si>
+    <t>get_status_byte_register</t>
+  </si>
+  <si>
+    <t>get_instrument_setting_learn</t>
+  </si>
+  <si>
+    <t>get_wait_current_command_execution</t>
+  </si>
+  <si>
+    <t>clear_status_group_event_registers</t>
+  </si>
+  <si>
+    <t>get_questionable_status</t>
+  </si>
+  <si>
+    <t>get_questionable_status_condition</t>
+  </si>
+  <si>
+    <t>set_questionable_status_enable</t>
+  </si>
+  <si>
+    <t>get_questionable_status_enable</t>
+  </si>
+  <si>
+    <t>set_questionable_status_neg_transition</t>
+  </si>
+  <si>
+    <t>get_questionable_status_neg_transition</t>
+  </si>
+  <si>
+    <t>set_questionable_status_pos_transition</t>
+  </si>
+  <si>
+    <t>get_questionable_status_pos_transition</t>
+  </si>
+  <si>
+    <t>get_operation_status</t>
+  </si>
+  <si>
+    <t>get_operation_status_condition</t>
+  </si>
+  <si>
+    <t>set_operation_status_enable</t>
+  </si>
+  <si>
+    <t>get_operation_status_enable</t>
+  </si>
+  <si>
+    <t>set_operation_status_neg_transition</t>
+  </si>
+  <si>
+    <t>get_operation_status_neg_transition</t>
+  </si>
+  <si>
+    <t>set_operation_status_pos_transition</t>
+  </si>
+  <si>
+    <t>get_operation_status_pos_transition</t>
+  </si>
+  <si>
+    <t>signal_generation_channel_stop</t>
+  </si>
+  <si>
+    <t>set_module_delay</t>
+  </si>
+  <si>
+    <t>get_module_delay</t>
+  </si>
+  <si>
+    <t>get_sample_clock_delay</t>
+  </si>
+  <si>
+    <t>set_arm_mode</t>
+  </si>
+  <si>
+    <t>get_arm_mode</t>
+  </si>
+  <si>
+    <t>set_continuous_mode</t>
+  </si>
+  <si>
+    <t>get_continuous_mode</t>
+  </si>
+  <si>
+    <t>set_gate_mode</t>
+  </si>
+  <si>
+    <t>get_gate_mode</t>
+  </si>
+  <si>
+    <t>signal_generation_start</t>
+  </si>
+  <si>
+    <t>set_trigger_input_threshold_level</t>
+  </si>
+  <si>
+    <t>get_trigger_input_threshold_level</t>
+  </si>
+  <si>
+    <t>set_trigger_input_slope</t>
+  </si>
+  <si>
+    <t>get_trigger_input_slope</t>
+  </si>
+  <si>
+    <t>set_trigger_function_source</t>
+  </si>
+  <si>
+    <t>get_trigger_function_source</t>
+  </si>
+  <si>
+    <t>set_input_trigger_event_operation_mode</t>
+  </si>
+  <si>
+    <t>get_input_trigger_event_operation_mode</t>
+  </si>
+  <si>
+    <t>set_event_in_threshold_level</t>
+  </si>
+  <si>
+    <t>get_event_in_threshold_level</t>
+  </si>
+  <si>
+    <t>set_event_input_slope</t>
+  </si>
+  <si>
+    <t>get_event_input_slope</t>
+  </si>
+  <si>
+    <t>set_enable_event_source</t>
+  </si>
+  <si>
+    <t>get_enable_event_source</t>
+  </si>
+  <si>
+    <t>set_advance_event_source</t>
+  </si>
+  <si>
+    <t>get_advance_event_source</t>
+  </si>
+  <si>
+    <t>trigger_enable_event</t>
+  </si>
+  <si>
+    <t>trigger_begin_event</t>
+  </si>
+  <si>
+    <t>set_trigger_gated_mode</t>
+  </si>
+  <si>
+    <t>get_trigger_gated_mode</t>
+  </si>
+  <si>
+    <t>trigger_advance_event</t>
+  </si>
+  <si>
+    <t>set_format_byte_order</t>
+  </si>
+  <si>
+    <t>get_format_byte_order</t>
+  </si>
+  <si>
+    <t>get_instrument_slot_number</t>
+  </si>
+  <si>
+    <t>instrument_access_led_start</t>
+  </si>
+  <si>
+    <t>instrument_access_led_stop</t>
+  </si>
+  <si>
+    <t>hw_revision_number</t>
+  </si>
+  <si>
+    <t>set_dac_operation_mode</t>
+  </si>
+  <si>
+    <t>get_dac_operation_mode</t>
+  </si>
+  <si>
+    <t>set_extended_mem_sample_rate_divider</t>
+  </si>
+  <si>
+    <t>get_extended_mem_sample_rate_divider</t>
+  </si>
+  <si>
+    <t>get_multi_module_config_mode</t>
+  </si>
+  <si>
+    <t>get_multi_module_mode</t>
+  </si>
+  <si>
+    <t>get_disk_usage_info</t>
+  </si>
+  <si>
+    <t>set_default_dir</t>
+  </si>
+  <si>
+    <t>get_default_dir</t>
+  </si>
+  <si>
+    <t>set_copy_file_or_dir</t>
+  </si>
+  <si>
+    <t>set_copy_file_and_dir</t>
+  </si>
+  <si>
+    <t>set_remove_file</t>
+  </si>
+  <si>
+    <t>get_data_in_file</t>
+  </si>
+  <si>
+    <t>load_data_in_file</t>
+  </si>
+  <si>
+    <t>dir_create</t>
+  </si>
+  <si>
+    <t>set_move_file_or_dir</t>
+  </si>
+  <si>
+    <t>set_move_file_and_dir</t>
+  </si>
+  <si>
+    <t>dir_remove</t>
+  </si>
+  <si>
+    <t>load_instrument_state</t>
+  </si>
+  <si>
+    <t>set_instrument_state</t>
+  </si>
+  <si>
+    <t>set_output_amplifier</t>
+  </si>
+  <si>
+    <t>get_output_amplifier</t>
+  </si>
+  <si>
+    <t>set_output_clock_source</t>
+  </si>
+  <si>
+    <t>get_output_clock_source</t>
+  </si>
+  <si>
+    <t>set_dac_sample_freq_divider</t>
+  </si>
+  <si>
+    <t>get_dac_sample_freq_divider</t>
+  </si>
+  <si>
+    <t>set_ref_clock_freq_divider1</t>
+  </si>
+  <si>
+    <t>get_ref_clock_freq_divider1</t>
+  </si>
+  <si>
+    <t>set_ref_clock_freq_divider2</t>
+  </si>
+  <si>
+    <t>get_ref_clock_freq_divider2</t>
+  </si>
+  <si>
+    <t>differential_offset</t>
+  </si>
+  <si>
+    <t>get_differential_offset</t>
+  </si>
+  <si>
+    <t>sample_rate_divider</t>
+  </si>
+  <si>
+    <t>set_fir_coefficient</t>
+  </si>
+  <si>
+    <t>get_fir_coefficient</t>
+  </si>
+  <si>
+    <t>set_fir_type</t>
+  </si>
+  <si>
+    <t>get_fir_type</t>
+  </si>
+  <si>
+    <t>set_fir_scaling_factor</t>
+  </si>
+  <si>
+    <t>get_fir_scaling_factor</t>
+  </si>
+  <si>
+    <t>set_fir_delay</t>
+  </si>
+  <si>
+    <t>get_fir_delay</t>
+  </si>
+  <si>
+    <t>set_dac_sample_freq</t>
+  </si>
+  <si>
+    <t>get_dac_sample_freq</t>
+  </si>
+  <si>
+    <t>set_external_clock_source_freq</t>
+  </si>
+  <si>
+    <t>get_external_clock_source_freq</t>
+  </si>
+  <si>
+    <t>set_external_clock_source_range</t>
+  </si>
+  <si>
+    <t>get_external_clock_source_range</t>
+  </si>
+  <si>
+    <t>set_external_clock_source_range_freq</t>
+  </si>
+  <si>
+    <t>get_external_clock_source_range_freq</t>
+  </si>
+  <si>
+    <t>set_output_amplitude</t>
+  </si>
+  <si>
+    <t>get_output_amplitude</t>
+  </si>
+  <si>
+    <t>set_output_high_level</t>
+  </si>
+  <si>
+    <t>get_output_high_level</t>
+  </si>
+  <si>
+    <t>set_output_low_level</t>
+  </si>
+  <si>
+    <t>get_output_low_level</t>
+  </si>
+  <si>
+    <t>output_offset</t>
+  </si>
+  <si>
+    <t>get_output_offset</t>
+  </si>
+  <si>
+    <t>set_termination_voltage</t>
+  </si>
+  <si>
+    <t>get_termination_voltage</t>
+  </si>
+  <si>
+    <t>set_waveform_type</t>
+  </si>
+  <si>
+    <t>get_waveform_type</t>
+  </si>
+  <si>
+    <t>reset_all_sequence_table</t>
+  </si>
+  <si>
+    <t>set_sequence_data</t>
+  </si>
+  <si>
+    <t>set_sequence_idle</t>
+  </si>
+  <si>
+    <t>get_sequence_data</t>
+  </si>
+  <si>
+    <t>get_sequence_data_binary_block_format</t>
+  </si>
+  <si>
+    <t>set_sequence_starting_index</t>
+  </si>
+  <si>
+    <t>get_sequence_starting_index</t>
+  </si>
+  <si>
+    <t>sequence_executation_state_and_index_entry</t>
+  </si>
+  <si>
+    <t>set_dynamic_mode</t>
+  </si>
+  <si>
+    <t>get_dynamic_mode</t>
+  </si>
+  <si>
+    <t>set_dynamic_starting_index</t>
+  </si>
+  <si>
+    <t>set_scenario_starting_index</t>
+  </si>
+  <si>
+    <t>get_scenario_starting_index</t>
+  </si>
+  <si>
+    <t>set_advancement_mode_scenario</t>
+  </si>
+  <si>
+    <t>get_advancement_mode_scenario</t>
+  </si>
+  <si>
+    <t>set_scenario_loop_count</t>
+  </si>
+  <si>
+    <t>get_scenario_loop_count</t>
+  </si>
+  <si>
+    <t>get_freq_and_phase_resp_data</t>
+  </si>
+  <si>
+    <t>set_internal_trigger_freq</t>
+  </si>
+  <si>
+    <t>get_internal_trigger_freq</t>
+  </si>
+  <si>
+    <t>waveform_data_from_file_import</t>
+  </si>
+  <si>
+    <t>waveform_data_from_bin_import</t>
+  </si>
+  <si>
+    <t>set_file_import_scaling_state</t>
+  </si>
+  <si>
+    <t>get_file_import_scaling_state</t>
+  </si>
+  <si>
+    <t>delete_segment</t>
+  </si>
+  <si>
+    <t>delete_all_segment</t>
+  </si>
+  <si>
+    <t>get_segments_id_length</t>
+  </si>
+  <si>
+    <t>set_segment_name</t>
+  </si>
+  <si>
+    <t>get_segment_name</t>
+  </si>
+  <si>
+    <t>set_segment_comment</t>
+  </si>
+  <si>
+    <t>get_segment_comment</t>
+  </si>
+  <si>
+    <t>set_segment_select</t>
+  </si>
+  <si>
+    <t>get_segment_select</t>
+  </si>
+  <si>
+    <t>set_advancement_mode_segment</t>
+  </si>
+  <si>
+    <t>get_advancement_mode_segment</t>
+  </si>
+  <si>
+    <t>set_selected_segment_loop_count</t>
+  </si>
+  <si>
+    <t>get_selected_segment_loop_count</t>
+  </si>
+  <si>
+    <t>set_selected_segment_marker_state</t>
+  </si>
+  <si>
+    <t>get_selected_segment_marker_state</t>
+  </si>
+  <si>
+    <t>get_self_tests_power_result</t>
+  </si>
+  <si>
+    <t>get_self_tests_power_result_messsage</t>
+  </si>
+  <si>
+    <t>get_softfrontpanel_hislipnumber</t>
+  </si>
+  <si>
+    <t>get_softfrontpanel_vxi11number</t>
+  </si>
+  <si>
+    <t>get_self_test</t>
+  </si>
+  <si>
+    <t>set_sample_clock_delay</t>
+  </si>
+  <si>
+    <t>set_waveform_mem_source</t>
+  </si>
+  <si>
+    <t>get_waveform_mem_source</t>
+  </si>
+  <si>
+    <t>set_waveform_mem_segment</t>
+  </si>
+  <si>
+    <t>set_waveform_mem_new_segment</t>
+  </si>
+  <si>
+    <t>set_waveform_data_in_mem</t>
+  </si>
+  <si>
+    <t>get_waveform_data_in_mem</t>
+  </si>
+  <si>
+    <t>mem_space_waveform_data</t>
+  </si>
+  <si>
+    <t>set_ref_clock_source</t>
+  </si>
+  <si>
+    <t>get_ref_clock_source</t>
+  </si>
+  <si>
+    <t>ref_clock_source_availability</t>
+  </si>
+  <si>
+    <t>set_hw_input_disable_state_enable_function</t>
+  </si>
+  <si>
+    <t>get_hw_input_disable_state_enable_function</t>
+  </si>
+  <si>
+    <t>set_hw_input_disable_state_trigger_function</t>
+  </si>
+  <si>
+    <t>get_hw_input_disable_state_trigger_function</t>
+  </si>
+  <si>
+    <t>set_hw_input_disable_state_advance_function</t>
+  </si>
+  <si>
+    <t>get_hw_input_disable_state_advance_function</t>
+  </si>
+  <si>
+    <t>OpenIOSession</t>
+  </si>
+  <si>
+    <t>CloseIOSession</t>
+  </si>
+  <si>
+    <t>open_io_session</t>
+  </si>
+  <si>
+    <t>close_io_session</t>
   </si>
 </sst>
 </file>
@@ -1005,6 +1623,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1059,26 +1695,8 @@
     <xf numFmtId="2" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1360,1556 +1978,2199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D215"/>
+  <dimension ref="B1:E215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="F205" sqref="F205:F211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="48" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="45.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+    <row r="2" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="E4" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="3" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+      <c r="E18" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="4" t="s">
+      <c r="E19" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="4" t="s">
+      <c r="E20" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="4" t="s">
+      <c r="E21" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="4" t="s">
+      <c r="E22" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="4" t="s">
+      <c r="E23" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="4" t="s">
+      <c r="E24" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="4" t="s">
+      <c r="E25" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="4" t="s">
+      <c r="E26" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="4" t="s">
+      <c r="E27" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="4" t="s">
+      <c r="E28" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="4" t="s">
+      <c r="E29" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="4" t="s">
+      <c r="E30" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="4" t="s">
+      <c r="E31" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="4" t="s">
+      <c r="E32" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
+      <c r="D33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="E33" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25" t="s">
+      <c r="E34" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E35" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="5" t="s">
+      <c r="E36" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="5" t="s">
+      <c r="E37" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="5" t="s">
+      <c r="E38" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="5" t="s">
+      <c r="E39" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="5" t="s">
+      <c r="E40" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="5" t="s">
+      <c r="E41" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="31"/>
+      <c r="C42" s="31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25" t="s">
+      <c r="E42" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E43" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="5" t="s">
+      <c r="E44" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="5" t="s">
+      <c r="E45" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="5" t="s">
+      <c r="E46" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="5" t="s">
+      <c r="E47" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="5" t="s">
+      <c r="E48" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="5" t="s">
+      <c r="E49" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="33" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="5" t="s">
+      <c r="C50" s="33"/>
+      <c r="D50" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="27" t="s">
+      <c r="E50" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="6" t="s">
+      <c r="E51" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="6" t="s">
+      <c r="E52" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="6" t="s">
+      <c r="E53" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="6" t="s">
+      <c r="E54" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="6" t="s">
+      <c r="E55" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="6" t="s">
+      <c r="E56" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="6" t="s">
+      <c r="E57" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="6" t="s">
+      <c r="E58" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="6" t="s">
+      <c r="E59" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="6" t="s">
+      <c r="E60" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="6" t="s">
+      <c r="E61" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="6" t="s">
+      <c r="E62" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="6" t="s">
+      <c r="E63" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="6" t="s">
+      <c r="E64" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="6" t="s">
+      <c r="E65" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="6" t="s">
+      <c r="E66" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="6" t="s">
+      <c r="E67" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="6" t="s">
+      <c r="E68" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="6" t="s">
+      <c r="E69" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="6" t="s">
+      <c r="E70" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="6" t="s">
+      <c r="E71" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="6" t="s">
+      <c r="E72" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="6" t="s">
+      <c r="E73" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="6" t="s">
+      <c r="E74" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="6" t="s">
+      <c r="E75" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="6" t="s">
+      <c r="E76" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="6" t="s">
+      <c r="E77" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="6" t="s">
+      <c r="E78" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="6" t="s">
+      <c r="E79" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="6" t="s">
+      <c r="E80" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="6" t="s">
+      <c r="E81" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="6" t="s">
+      <c r="E82" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="33"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="6" t="s">
+      <c r="E83" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="34" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="6" t="s">
+      <c r="C84" s="34"/>
+      <c r="D84" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="28" t="s">
+      <c r="E84" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="7" t="s">
+      <c r="E85" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="7" t="s">
+      <c r="E86" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="7" t="s">
+      <c r="E87" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="7" t="s">
+      <c r="E88" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="7" t="s">
+      <c r="E89" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="7" t="s">
+      <c r="E90" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="35" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="7" t="s">
+      <c r="C91" s="35"/>
+      <c r="D91" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="29" t="s">
+      <c r="E91" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="8" t="s">
+      <c r="E92" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="36" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="8" t="s">
+      <c r="C93" s="36"/>
+      <c r="D93" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="30" t="s">
+      <c r="E93" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="9" t="s">
+      <c r="E94" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="9" t="s">
+      <c r="E95" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="30"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="9" t="s">
+      <c r="E96" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="9" t="s">
+      <c r="E97" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="36"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="9" t="s">
+      <c r="E98" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="36"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="9" t="s">
+      <c r="E99" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="36"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="9" t="s">
+      <c r="E100" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="36"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="30"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="9" t="s">
+      <c r="E101" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="9" t="s">
+      <c r="E102" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="37" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="30"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="9" t="s">
+      <c r="C103" s="37"/>
+      <c r="D103" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="31" t="s">
+      <c r="E103" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C103" s="31"/>
-      <c r="D103" s="10" t="s">
+      <c r="E104" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="10" t="s">
+      <c r="E105" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="37"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="10" t="s">
+      <c r="E106" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="10" t="s">
+      <c r="E107" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="10" t="s">
+      <c r="E108" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="10" t="s">
+      <c r="E109" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="37"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="10" t="s">
+      <c r="E110" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="37"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="10" t="s">
+      <c r="E111" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="37"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="10" t="s">
+      <c r="E112" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="37"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="10" t="s">
+      <c r="E113" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="37"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="10" t="s">
+      <c r="E114" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="37"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="10" t="s">
+      <c r="E115" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="10" t="s">
+      <c r="E116" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="38" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="11" t="s">
+      <c r="C117" s="38"/>
+      <c r="D117" s="12" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="32" t="s">
+      <c r="E117" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="38"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C117" s="32"/>
-      <c r="D117" s="12" t="s">
+      <c r="E118" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="38"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="32"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="12" t="s">
+      <c r="E119" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="38"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="12" t="s">
+      <c r="E120" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="38"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="12" t="s">
+      <c r="E121" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="38"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="12" t="s">
+      <c r="E122" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="38"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="12" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="12" t="s">
+      <c r="E123" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="38"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="12" t="s">
+      <c r="E124" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="12" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="12" t="s">
+      <c r="E125" s="12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="38"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="12" t="s">
+      <c r="E126" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="38"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="12" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="12" t="s">
+      <c r="E127" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="38"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="12" t="s">
+      <c r="E128" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="32"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="12" t="s">
+      <c r="E129" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="12" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="12" t="s">
+      <c r="E130" s="12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="38"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="12" t="s">
+      <c r="E131" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="38"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="12" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="32"/>
-      <c r="C131" s="32"/>
-      <c r="D131" s="12" t="s">
+      <c r="E132" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="38"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="12" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="32"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="12" t="s">
+      <c r="E133" s="12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="38"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="32"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="12" t="s">
+      <c r="E134" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="38"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="12" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="12" t="s">
+      <c r="E135" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="38"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="12" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="12" t="s">
+      <c r="E136" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="38"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="12" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="12" t="s">
+      <c r="E137" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="39" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="32"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="12" t="s">
+      <c r="C138" s="39"/>
+      <c r="D138" s="13" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="33" t="s">
+      <c r="E138" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="39"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C138" s="33"/>
-      <c r="D138" s="13" t="s">
+      <c r="E139" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="40" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="33"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="13" t="s">
+      <c r="C140" s="40"/>
+      <c r="D140" s="14" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="34" t="s">
+      <c r="E140" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="40"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C140" s="34"/>
-      <c r="D140" s="14" t="s">
+      <c r="E141" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="40"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="14" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="34"/>
-      <c r="C141" s="34"/>
-      <c r="D141" s="14" t="s">
+      <c r="E142" s="14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="40"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="14" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="34"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="14" t="s">
+      <c r="E143" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="40"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="14" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="34"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="14" t="s">
+      <c r="E144" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="40"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="14" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="34"/>
-      <c r="C144" s="34"/>
-      <c r="D144" s="14" t="s">
+      <c r="E145" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="40"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="14" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="34"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="14" t="s">
+      <c r="E146" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="40"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="14" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="34"/>
-      <c r="C146" s="34"/>
-      <c r="D146" s="14" t="s">
+      <c r="E147" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="40"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="14" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="34"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="14" t="s">
+      <c r="E148" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="41" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="34"/>
-      <c r="C148" s="34"/>
-      <c r="D148" s="14" t="s">
+      <c r="C149" s="41"/>
+      <c r="D149" s="15" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B149" s="35" t="s">
+      <c r="E149" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="41"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C149" s="35"/>
-      <c r="D149" s="15" t="s">
+      <c r="E150" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="41"/>
+      <c r="C151" s="41"/>
+      <c r="D151" s="15" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="35"/>
-      <c r="C150" s="35"/>
-      <c r="D150" s="15" t="s">
+      <c r="E151" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="41"/>
+      <c r="C152" s="41"/>
+      <c r="D152" s="15" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="35"/>
-      <c r="C151" s="35"/>
-      <c r="D151" s="15" t="s">
+      <c r="E152" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="41"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="15" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="35"/>
-      <c r="C152" s="35"/>
-      <c r="D152" s="15" t="s">
+      <c r="E153" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="41"/>
+      <c r="C154" s="41"/>
+      <c r="D154" s="15" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="35"/>
-      <c r="C153" s="35"/>
-      <c r="D153" s="15" t="s">
+      <c r="E154" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="41"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="15" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="35"/>
-      <c r="C154" s="35"/>
-      <c r="D154" s="15" t="s">
+      <c r="E155" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="41"/>
+      <c r="C156" s="41"/>
+      <c r="D156" s="15" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="35"/>
-      <c r="C155" s="35"/>
-      <c r="D155" s="15" t="s">
+      <c r="E156" s="15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="41"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="35"/>
-      <c r="C156" s="35"/>
-      <c r="D156" s="15" t="s">
+      <c r="E157" s="15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="41"/>
+      <c r="C158" s="41"/>
+      <c r="D158" s="15" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="35"/>
-      <c r="C157" s="35"/>
-      <c r="D157" s="15" t="s">
+      <c r="E158" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="42" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="35"/>
-      <c r="C158" s="35"/>
-      <c r="D158" s="15" t="s">
+      <c r="C159" s="42"/>
+      <c r="D159" s="16" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="36" t="s">
+      <c r="E159" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="42"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C159" s="36"/>
-      <c r="D159" s="16" t="s">
+      <c r="E160" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="43" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="36"/>
-      <c r="C160" s="36"/>
-      <c r="D160" s="16" t="s">
+      <c r="C161" s="43"/>
+      <c r="D161" s="17" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="37" t="s">
+      <c r="E161" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="43"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C161" s="37"/>
-      <c r="D161" s="17" t="s">
+      <c r="E162" s="17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="43"/>
+      <c r="C163" s="43"/>
+      <c r="D163" s="17" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="37"/>
-      <c r="C162" s="37"/>
-      <c r="D162" s="17" t="s">
+      <c r="E163" s="17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="43"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="17" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="37"/>
-      <c r="C163" s="37"/>
-      <c r="D163" s="17" t="s">
+      <c r="E164" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="43"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="17" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="37"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="17" t="s">
+      <c r="E165" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="43"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="17" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="37"/>
-      <c r="C165" s="37"/>
-      <c r="D165" s="17" t="s">
+      <c r="E166" s="17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="43"/>
+      <c r="C167" s="43"/>
+      <c r="D167" s="17" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="37"/>
-      <c r="C166" s="37"/>
-      <c r="D166" s="17" t="s">
+      <c r="E167" s="17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="43"/>
+      <c r="C168" s="43"/>
+      <c r="D168" s="17" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="37"/>
-      <c r="C167" s="37"/>
-      <c r="D167" s="17" t="s">
+      <c r="E168" s="17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="43"/>
+      <c r="C169" s="43"/>
+      <c r="D169" s="17" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="37"/>
-      <c r="C168" s="37"/>
-      <c r="D168" s="17" t="s">
+      <c r="E169" s="17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="43"/>
+      <c r="C170" s="43"/>
+      <c r="D170" s="17" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="37"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="17" t="s">
+      <c r="E170" s="17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="43"/>
+      <c r="C171" s="43"/>
+      <c r="D171" s="17" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="37"/>
-      <c r="C170" s="37"/>
-      <c r="D170" s="17" t="s">
+      <c r="E171" s="17" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="43"/>
+      <c r="C172" s="43"/>
+      <c r="D172" s="17" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="37"/>
-      <c r="C171" s="37"/>
-      <c r="D171" s="17" t="s">
+      <c r="E172" s="17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="43"/>
+      <c r="C173" s="43"/>
+      <c r="D173" s="17" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="37"/>
-      <c r="C172" s="37"/>
-      <c r="D172" s="17" t="s">
+      <c r="E173" s="17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="43"/>
+      <c r="C174" s="43"/>
+      <c r="D174" s="17" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B173" s="37"/>
-      <c r="C173" s="37"/>
-      <c r="D173" s="17" t="s">
+      <c r="E174" s="17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="43"/>
+      <c r="C175" s="43"/>
+      <c r="D175" s="17" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="37"/>
-      <c r="C174" s="37"/>
-      <c r="D174" s="17" t="s">
+      <c r="E175" s="17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="43"/>
+      <c r="C176" s="43"/>
+      <c r="D176" s="17" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="37"/>
-      <c r="C175" s="37"/>
-      <c r="D175" s="17" t="s">
+      <c r="E176" s="17" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="43"/>
+      <c r="C177" s="43"/>
+      <c r="D177" s="17" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="37"/>
-      <c r="C176" s="37"/>
-      <c r="D176" s="17" t="s">
+      <c r="E177" s="17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="32" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B177" s="37"/>
-      <c r="C177" s="37"/>
-      <c r="D177" s="17" t="s">
+      <c r="C178" s="32"/>
+      <c r="D178" s="18" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="26" t="s">
+      <c r="E178" s="18" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="C178" s="26"/>
-      <c r="D178" s="18" t="s">
+      <c r="C179" s="44"/>
+      <c r="D179" s="22" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="38" t="s">
+      <c r="E179" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="44"/>
+      <c r="C180" s="44"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="23"/>
+    </row>
+    <row r="181" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="44"/>
+      <c r="C181" s="44"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="23"/>
+    </row>
+    <row r="182" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="44"/>
+      <c r="C182" s="44"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="24"/>
+    </row>
+    <row r="183" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="C179" s="38"/>
-      <c r="D179" s="39" t="s">
+      <c r="C183" s="45"/>
+      <c r="D183" s="19" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B180" s="38"/>
-      <c r="C180" s="38"/>
-      <c r="D180" s="40"/>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B181" s="38"/>
-      <c r="C181" s="38"/>
-      <c r="D181" s="40"/>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" s="38"/>
-      <c r="C182" s="38"/>
-      <c r="D182" s="41"/>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B183" s="42" t="s">
+      <c r="E183" s="19" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="45"/>
+      <c r="C184" s="45"/>
+      <c r="D184" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C183" s="42"/>
-      <c r="D183" s="19" t="s">
+      <c r="E184" s="19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="45"/>
+      <c r="C185" s="45"/>
+      <c r="D185" s="19" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="42"/>
-      <c r="C184" s="42"/>
-      <c r="D184" s="19" t="s">
+      <c r="E185" s="19" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="45"/>
+      <c r="C186" s="45"/>
+      <c r="D186" s="19" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="42"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="19" t="s">
+      <c r="E186" s="19" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="45"/>
+      <c r="C187" s="45"/>
+      <c r="D187" s="19" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B186" s="42"/>
-      <c r="C186" s="42"/>
-      <c r="D186" s="19" t="s">
+      <c r="E187" s="19" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="45"/>
+      <c r="C188" s="45"/>
+      <c r="D188" s="19" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" s="42"/>
-      <c r="C187" s="42"/>
-      <c r="D187" s="19" t="s">
+      <c r="E188" s="19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="45"/>
+      <c r="C189" s="45"/>
+      <c r="D189" s="19" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="42"/>
-      <c r="C188" s="42"/>
-      <c r="D188" s="19" t="s">
+      <c r="E189" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="45"/>
+      <c r="C190" s="45"/>
+      <c r="D190" s="19" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B189" s="42"/>
-      <c r="C189" s="42"/>
-      <c r="D189" s="19" t="s">
+      <c r="E190" s="19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="45"/>
+      <c r="C191" s="45"/>
+      <c r="D191" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E191" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="45"/>
+      <c r="C192" s="45"/>
+      <c r="D192" s="26"/>
+      <c r="E192" s="26"/>
+    </row>
+    <row r="193" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="45"/>
+      <c r="C193" s="45"/>
+      <c r="D193" s="19" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" s="42"/>
-      <c r="C190" s="42"/>
-      <c r="D190" s="19" t="s">
+      <c r="E193" s="19" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="45"/>
+      <c r="C194" s="45"/>
+      <c r="D194" s="19" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" s="42"/>
-      <c r="C191" s="42"/>
-      <c r="D191" s="43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="42"/>
-      <c r="C192" s="42"/>
-      <c r="D192" s="44"/>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="42"/>
-      <c r="C193" s="42"/>
-      <c r="D193" s="19" t="s">
+      <c r="E194" s="19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="45"/>
+      <c r="C195" s="45"/>
+      <c r="D195" s="19" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="42"/>
-      <c r="C194" s="42"/>
-      <c r="D194" s="19" t="s">
+      <c r="E195" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="45"/>
+      <c r="C196" s="45"/>
+      <c r="D196" s="19" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="42"/>
-      <c r="C195" s="42"/>
-      <c r="D195" s="19" t="s">
+      <c r="E196" s="19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="45"/>
+      <c r="C197" s="45"/>
+      <c r="D197" s="19" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="42"/>
-      <c r="C196" s="42"/>
-      <c r="D196" s="19" t="s">
+      <c r="E197" s="19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="45"/>
+      <c r="C198" s="45"/>
+      <c r="D198" s="19" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="42"/>
-      <c r="C197" s="42"/>
-      <c r="D197" s="19" t="s">
+      <c r="E198" s="19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="45"/>
+      <c r="C199" s="45"/>
+      <c r="D199" s="19" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B198" s="42"/>
-      <c r="C198" s="42"/>
-      <c r="D198" s="19" t="s">
+      <c r="E199" s="19" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="45"/>
+      <c r="C200" s="45"/>
+      <c r="D200" s="19" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="42"/>
-      <c r="C199" s="42"/>
-      <c r="D199" s="19" t="s">
+      <c r="E200" s="19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="45"/>
+      <c r="C201" s="45"/>
+      <c r="D201" s="19" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B200" s="42"/>
-      <c r="C200" s="42"/>
-      <c r="D200" s="19" t="s">
+      <c r="E201" s="19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="45"/>
+      <c r="C202" s="45"/>
+      <c r="D202" s="19" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B201" s="42"/>
-      <c r="C201" s="42"/>
-      <c r="D201" s="19" t="s">
+      <c r="E202" s="19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="45"/>
+      <c r="C203" s="45"/>
+      <c r="D203" s="19" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B202" s="42"/>
-      <c r="C202" s="42"/>
-      <c r="D202" s="19" t="s">
+      <c r="E203" s="19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="45"/>
+      <c r="C204" s="45"/>
+      <c r="D204" s="19" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B203" s="42"/>
-      <c r="C203" s="42"/>
-      <c r="D203" s="19" t="s">
+      <c r="E204" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="45"/>
+      <c r="C205" s="45"/>
+      <c r="D205" s="19" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B204" s="42"/>
-      <c r="C204" s="42"/>
-      <c r="D204" s="19" t="s">
+      <c r="E205" s="19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="45"/>
+      <c r="C206" s="45"/>
+      <c r="D206" s="19" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B205" s="42"/>
-      <c r="C205" s="42"/>
-      <c r="D205" s="19" t="s">
+      <c r="E206" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="45"/>
+      <c r="C207" s="45"/>
+      <c r="D207" s="19" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B206" s="42"/>
-      <c r="C206" s="42"/>
-      <c r="D206" s="19" t="s">
+      <c r="E207" s="19" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="45"/>
+      <c r="C208" s="45"/>
+      <c r="D208" s="19" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B207" s="42"/>
-      <c r="C207" s="42"/>
-      <c r="D207" s="19" t="s">
+      <c r="E208" s="19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="45"/>
+      <c r="C209" s="45"/>
+      <c r="D209" s="19" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B208" s="42"/>
-      <c r="C208" s="42"/>
-      <c r="D208" s="19" t="s">
+      <c r="E209" s="19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="45"/>
+      <c r="C210" s="45"/>
+      <c r="D210" s="19" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B209" s="42"/>
-      <c r="C209" s="42"/>
-      <c r="D209" s="19" t="s">
+      <c r="E210" s="19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="28" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B210" s="42"/>
-      <c r="C210" s="42"/>
-      <c r="D210" s="19" t="s">
+      <c r="C211" s="28"/>
+      <c r="D211" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B211" s="22" t="s">
+      <c r="E211" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="28"/>
+      <c r="C212" s="28"/>
+      <c r="D212" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C211" s="22"/>
-      <c r="D211" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B212" s="22"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="1" t="s">
+      <c r="E212" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C215" s="21" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C215" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="D215" s="45">
+      <c r="D215" s="21">
         <v>203</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
     <mergeCell ref="B179:C182"/>
     <mergeCell ref="D179:D182"/>
     <mergeCell ref="B183:C210"/>
     <mergeCell ref="D191:D192"/>
     <mergeCell ref="B211:C212"/>
+    <mergeCell ref="B138:C139"/>
+    <mergeCell ref="B140:C148"/>
+    <mergeCell ref="B149:C158"/>
+    <mergeCell ref="B159:C160"/>
+    <mergeCell ref="B161:C177"/>
+    <mergeCell ref="E179:E182"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C17"/>
+    <mergeCell ref="B18:C32"/>
+    <mergeCell ref="B33:B49"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="C42:C49"/>
     <mergeCell ref="B178:C178"/>
     <mergeCell ref="B50:C83"/>
     <mergeCell ref="B84:C90"/>
@@ -2917,19 +4178,8 @@
     <mergeCell ref="B93:C102"/>
     <mergeCell ref="B103:C116"/>
     <mergeCell ref="B117:C137"/>
-    <mergeCell ref="B138:C139"/>
-    <mergeCell ref="B140:C148"/>
-    <mergeCell ref="B149:C158"/>
-    <mergeCell ref="B159:C160"/>
-    <mergeCell ref="B161:C177"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:C17"/>
-    <mergeCell ref="B18:C32"/>
-    <mergeCell ref="B33:B49"/>
-    <mergeCell ref="C34:C41"/>
-    <mergeCell ref="C42:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>